--- a/data/trans_camb/P19C02-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P19C02-Clase-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>14.82778101836716</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>21.3674883799486</v>
+        <v>21.36748837994859</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>-1.552552585249345</v>
@@ -655,7 +655,7 @@
         <v>2.387594124223702</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>13.63773740027288</v>
+        <v>13.63773740027289</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>2.977050103443229</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.594070119542776</v>
+        <v>-1.932446785385336</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>7.692285898107507</v>
+        <v>6.292602130373695</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>14.9915599640089</v>
+        <v>15.14629238376174</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-10.21864911445867</v>
+        <v>-9.494494859321655</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-5.663940409755829</v>
+        <v>-5.055878967007</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>5.754751965335859</v>
+        <v>6.452911348807347</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-2.576254369077623</v>
+        <v>-2.458849450983664</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>4.215110390842177</v>
+        <v>4.526020617014768</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>13.24037878784366</v>
+        <v>13.13856575570744</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>12.93757307784968</v>
+        <v>12.76045793836769</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>22.51335788377625</v>
+        <v>21.78461650438501</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>27.7461247995033</v>
+        <v>27.57021266157013</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>6.980690309136561</v>
+        <v>7.496040981386273</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>10.19415020487557</v>
+        <v>11.50769366962449</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>20.63909825091387</v>
+        <v>20.80177012374995</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>8.140814232848481</v>
+        <v>8.577580424859955</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>15.01249660692579</v>
+        <v>15.04519790617309</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>23.56047755518714</v>
+        <v>23.12845021957313</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>0.4214910555334895</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>0.6073872564079634</v>
+        <v>0.6073872564079631</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>-0.03692783223022381</v>
@@ -760,7 +760,7 @@
         <v>0.05678949369630585</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3243768253016974</v>
+        <v>0.3243768253016976</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>0.07835907811544597</v>
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.04157125396983242</v>
+        <v>-0.05315837047063534</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.1935259367231353</v>
+        <v>0.1641403842237756</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.3898433473830595</v>
+        <v>0.380360877090514</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.2227050611487433</v>
+        <v>-0.2073728644218325</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.1233465792001726</v>
+        <v>-0.1153030527724893</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1215106725513495</v>
+        <v>0.1344179947850004</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.06244347581209132</v>
+        <v>-0.06298439471161434</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.1033649274680838</v>
+        <v>0.1124820061845356</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.321375431712404</v>
+        <v>0.318289595059393</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.4173815350931324</v>
+        <v>0.3946384514882761</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.7098027829611165</v>
+        <v>0.6845039309452841</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.8973002883540345</v>
+        <v>0.8903900099156092</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.1875260471538653</v>
+        <v>0.2025912640068927</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.2768680319965732</v>
+        <v>0.3053129852080752</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.5400139382752411</v>
+        <v>0.5576672805786524</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2286164449937234</v>
+        <v>0.2384824952945819</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.4300446895836871</v>
+        <v>0.4380573110512559</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.6737699074971768</v>
+        <v>0.6662809065482689</v>
       </c>
     </row>
     <row r="10">
@@ -869,7 +869,7 @@
         <v>7.798983360956102</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>19.17929467585377</v>
+        <v>19.17929467585378</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>1.655768257432594</v>
@@ -878,7 +878,7 @@
         <v>4.709431810008679</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>17.9369704741571</v>
+        <v>17.93697047415709</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-6.356724581229824</v>
+        <v>-6.061288547820663</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-6.95356508445092</v>
+        <v>-7.002750319114861</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>8.848444446196824</v>
+        <v>9.201160944251235</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-7.543656337013922</v>
+        <v>-6.444788902475914</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.1059553052871674</v>
+        <v>0.1909524305688219</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>12.09298136708819</v>
+        <v>11.931364202357</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-3.723539279369361</v>
+        <v>-3.782969726523781</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-1.137501336694227</v>
+        <v>-0.5792542153993903</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>12.71931710385498</v>
+        <v>12.60797597564523</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>10.22001310120266</v>
+        <v>10.2533495882273</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>9.303360106907475</v>
+        <v>9.833494285506676</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>24.2683763839771</v>
+        <v>24.52553967006401</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>8.073956321740793</v>
+        <v>9.21624675459317</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>15.61734090979829</v>
+        <v>15.26346964565471</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>25.56050331366026</v>
+        <v>25.03979177454819</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>6.890871834886574</v>
+        <v>7.460812668855203</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>9.971211716641184</v>
+        <v>10.95365843993399</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>23.03561805157783</v>
+        <v>23.27402358101314</v>
       </c>
     </row>
     <row r="13">
@@ -974,7 +974,7 @@
         <v>0.1977698790840876</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4863565689793545</v>
+        <v>0.4863565689793548</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>0.04228771396967704</v>
@@ -983,7 +983,7 @@
         <v>0.1202771610383121</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>0.4581036467445246</v>
+        <v>0.4581036467445244</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.14191231762701</v>
+        <v>-0.1368914679007947</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.1599779691961349</v>
+        <v>-0.158815081791472</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.1914813826251974</v>
+        <v>0.2085574769178686</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.1752468350203805</v>
+        <v>-0.1498418935814689</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.0008664936446995897</v>
+        <v>-0.001120627778366054</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2708113282304974</v>
+        <v>0.2771066174917474</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.08773692318488147</v>
+        <v>-0.09479066613679286</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.0289727784703175</v>
+        <v>-0.01766661909334156</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.2949267953278785</v>
+        <v>0.2978721268134316</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.2954132988354332</v>
+        <v>0.2990063545513288</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.2683790260604603</v>
+        <v>0.2985281693511583</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.707233760203708</v>
+        <v>0.7263438621338247</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.2194045916276277</v>
+        <v>0.2634684877925311</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.4304446409625164</v>
+        <v>0.4296197725613571</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.7163793263410759</v>
+        <v>0.7082512618520798</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1870482631538277</v>
+        <v>0.2074370692900285</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.2694112736249859</v>
+        <v>0.2995536381971534</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.641801100298621</v>
+        <v>0.6453164878386264</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>0.8423809653952286</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>18.07832850577501</v>
+        <v>18.07832850577502</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>-2.660308614208478</v>
@@ -1083,7 +1083,7 @@
         <v>3.051591395290332</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>21.73568140837405</v>
+        <v>21.73568140837406</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>-0.5074009253847545</v>
@@ -1092,7 +1092,7 @@
         <v>1.448999199274242</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>19.27576457902743</v>
+        <v>19.27576457902745</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-6.192275064870111</v>
+        <v>-6.214428088313428</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-5.314566206396163</v>
+        <v>-5.814438660027057</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>11.54383781428706</v>
+        <v>11.78270076919133</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-12.95462731517047</v>
+        <v>-11.7153823076647</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-7.98419637076637</v>
+        <v>-7.061323647407922</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>11.48958714998899</v>
+        <v>11.16088612431981</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-5.77025654106474</v>
+        <v>-5.710384088737452</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-4.341192647271178</v>
+        <v>-3.986866302759387</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>13.43465656292556</v>
+        <v>14.1575865856497</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>6.062182687364556</v>
+        <v>6.129829427635981</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>7.633777998803282</v>
+        <v>7.29775872688758</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>24.1741941499429</v>
+        <v>24.64373735122195</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>7.302248259873482</v>
+        <v>8.23973203811402</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>14.15281076502125</v>
+        <v>15.64549324554233</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>31.4688944617794</v>
+        <v>31.63235892808979</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>4.490422400135204</v>
+        <v>4.446481419437045</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>7.341172949227329</v>
+        <v>7.265295531859148</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>24.8523601130695</v>
+        <v>25.05994659821707</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>0.02745452671396783</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>0.5892012916897011</v>
+        <v>0.5892012916897014</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>-0.07681720956014233</v>
@@ -1188,7 +1188,7 @@
         <v>0.08811561728288053</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.6276243232691021</v>
+        <v>0.6276243232691024</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>-0.01603031846042835</v>
@@ -1197,7 +1197,7 @@
         <v>0.04577823462907248</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>0.6089792692745818</v>
+        <v>0.6089792692745821</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.1822720466206723</v>
+        <v>-0.1813164487651157</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.1615873856884909</v>
+        <v>-0.1781801745388389</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.3339754351534883</v>
+        <v>0.3532653649871373</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.315227769554553</v>
+        <v>-0.2987183616001073</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.2031583061743839</v>
+        <v>-0.1779347068546752</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2761912259931029</v>
+        <v>0.2767057841104789</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.1659221881076689</v>
+        <v>-0.1674257720070693</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.119978221569941</v>
+        <v>-0.1160759636347151</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.3845920461258692</v>
+        <v>0.4032842301745271</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.2200745382435424</v>
+        <v>0.22116306347891</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.2800004389814122</v>
+        <v>0.2583159941359204</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.8840790777231463</v>
+        <v>0.9122770764747203</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.2848179529596446</v>
+        <v>0.3110351143665574</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.5160498044827463</v>
+        <v>0.5263177433540941</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>1.103322612436699</v>
+        <v>1.150191601348166</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.157440363464553</v>
+        <v>0.1564833684123235</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.261975658850633</v>
+        <v>0.255800451495112</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.8747469816474962</v>
+        <v>0.8720842709191812</v>
       </c>
     </row>
     <row r="22">
@@ -1306,7 +1306,7 @@
         <v>7.82766353662816</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>18.30372472755419</v>
+        <v>18.30372472755418</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-3.445692175680219</v>
+        <v>-3.366858729259743</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>1.637826620799299</v>
+        <v>1.719873704821205</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>12.59906379245896</v>
+        <v>12.78518088467656</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-0.04526165582053923</v>
+        <v>1.037574183136648</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>3.587312039458697</v>
+        <v>4.118062998965888</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>15.26808406715786</v>
+        <v>14.91720086666866</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.1421433728482682</v>
+        <v>-0.04120047846093685</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>4.482816557526602</v>
+        <v>4.437972630290074</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>14.87844494210886</v>
+        <v>14.82423084919851</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>4.999165952064705</v>
+        <v>4.882956465880341</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>10.45492546657123</v>
+        <v>10.29993903584337</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>21.3776229281936</v>
+        <v>21.33346536912429</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>11.22800623309358</v>
+        <v>11.77163529968641</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>14.68048054255372</v>
+        <v>14.67321399716654</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>24.77096830842107</v>
+        <v>24.60107856039062</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>6.315872420271311</v>
+        <v>6.558618547363269</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>11.15520966636327</v>
+        <v>11.10041083951336</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>21.52905489416596</v>
+        <v>21.42963955384192</v>
       </c>
     </row>
     <row r="25">
@@ -1411,7 +1411,7 @@
         <v>0.3013430236781794</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.7046419059997284</v>
+        <v>0.7046419059997281</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.1288123699170411</v>
+        <v>-0.132394406481005</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.06266022607949559</v>
+        <v>0.06379528270785693</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.4801553446905901</v>
+        <v>0.4800440452235512</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.002060637455069985</v>
+        <v>0.03235589907960422</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.1144907148490916</v>
+        <v>0.1317062958290109</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.4799372750859784</v>
+        <v>0.4691121394154504</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.004152079864853415</v>
+        <v>-0.002409678608274495</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.1647537863453577</v>
+        <v>0.1616519206400753</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.5387247450097578</v>
+        <v>0.5318546367586662</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.2289376066571819</v>
+        <v>0.2262585436697593</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.4768000591943207</v>
+        <v>0.4684207894647353</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.975952394628152</v>
+        <v>0.9783680286593499</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.4211192833479934</v>
+        <v>0.4461442811945093</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.5750658825968163</v>
+        <v>0.5589064841575836</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.9620140520901238</v>
+        <v>0.962562991852187</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.260253708931991</v>
+        <v>0.2705536263647664</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.4600523407686539</v>
+        <v>0.4548303416030557</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.8963246362371367</v>
+        <v>0.8975156768309162</v>
       </c>
     </row>
     <row r="28">
@@ -1502,7 +1502,7 @@
         <v>14.25062392124674</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>19.58117459396594</v>
+        <v>19.58117459396595</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>2.370309404498358</v>
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-4.689523260365677</v>
+        <v>-4.598395828471772</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>7.419157015287818</v>
+        <v>7.810675962474869</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>12.74313314591349</v>
+        <v>13.13078975901911</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-3.393324995906903</v>
+        <v>-2.919718165750734</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>3.866174983438708</v>
+        <v>3.645468879116594</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>13.75458218363354</v>
+        <v>14.25727309331513</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-1.795630064908935</v>
+        <v>-2.07190746804189</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>6.747078112799731</v>
+        <v>6.261102950392937</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>14.73832764469021</v>
+        <v>14.30142669577854</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>8.001872949836525</v>
+        <v>8.253097651382799</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>20.46112919397719</v>
+        <v>21.83550134495277</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>26.1048586854481</v>
+        <v>25.75505874820446</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>7.616740525766252</v>
+        <v>7.459010564922189</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>14.83986568975483</v>
+        <v>15.14734003158352</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>24.39587416143778</v>
+        <v>23.89863512267722</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>6.376261853681435</v>
+        <v>6.076408296283623</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>14.93732807470262</v>
+        <v>14.96609603639028</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>23.18100412030387</v>
+        <v>22.96773575396767</v>
       </c>
     </row>
     <row r="31">
@@ -1607,7 +1607,7 @@
         <v>0.8068800038129741</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>1.108699402801971</v>
+        <v>1.108699402801972</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>0.0998555991360859</v>
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.213717107634276</v>
+        <v>-0.2071475667734121</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>0.3058996665095756</v>
+        <v>0.3446221697045841</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.5672183455095622</v>
+        <v>0.5957279829934271</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.126304638659946</v>
+        <v>-0.1124475917554541</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.1462059152965685</v>
+        <v>0.1317772015627254</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.4965938069566368</v>
+        <v>0.5066660160838192</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.07579195298764559</v>
+        <v>-0.08498818317036115</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>0.285802200458861</v>
+        <v>0.2644599725467022</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.5973946748367864</v>
+        <v>0.5908720918499158</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.5795650557432968</v>
+        <v>0.5892939170552013</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>1.418017630804097</v>
+        <v>1.573573478310851</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>1.878390104692274</v>
+        <v>1.890491587607313</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.3650178505597945</v>
+        <v>0.3540882514553698</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.731633225557235</v>
+        <v>0.7293268639992839</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>1.194505495827023</v>
+        <v>1.150213891185759</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.3347992925412946</v>
+        <v>0.3201593255068194</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.79728376972494</v>
+        <v>0.779979660956068</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>1.230540759946876</v>
+        <v>1.218602145084056</v>
       </c>
     </row>
     <row r="34">
@@ -1716,7 +1716,7 @@
         <v>0.3528375322021104</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>25.80059677171293</v>
+        <v>25.80059677171291</v>
       </c>
       <c r="F34" s="5" t="n">
         <v>1.656974335956032</v>
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-11.4344670384879</v>
+        <v>-12.7861047638547</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-7.884887620193846</v>
+        <v>-8.422178803257365</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>14.98454251883614</v>
+        <v>13.79010171349942</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-2.391013274222021</v>
+        <v>-1.952547070266365</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>4.125833932670064</v>
+        <v>3.988914950358211</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>15.83609057478147</v>
+        <v>15.94765791704925</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>-3.003957673394356</v>
+        <v>-2.603714990581828</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>2.720815598629566</v>
+        <v>2.881202331948938</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>17.33676754712422</v>
+        <v>17.39182945526318</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>3.956580333646301</v>
+        <v>4.42246647484474</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>8.618425218695808</v>
+        <v>8.326707916534398</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>38.17392199598568</v>
+        <v>37.19550966658592</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>5.774966572516584</v>
+        <v>5.638616313066316</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>12.89643260425553</v>
+        <v>12.61851243457105</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>24.76751484595044</v>
+        <v>24.57314191461548</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>4.407652275372442</v>
+        <v>4.124675155007916</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>10.60262744459658</v>
+        <v>10.89504661708891</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>26.15706343579387</v>
+        <v>26.40131725714437</v>
       </c>
     </row>
     <row r="37">
@@ -1821,7 +1821,7 @@
         <v>0.01142795987099462</v>
       </c>
       <c r="E37" s="6" t="n">
-        <v>0.8356485850999418</v>
+        <v>0.8356485850999413</v>
       </c>
       <c r="F37" s="6" t="n">
         <v>0.06998990650941125</v>
@@ -1839,7 +1839,7 @@
         <v>0.2701678127383844</v>
       </c>
       <c r="K37" s="6" t="n">
-        <v>0.8603687466652555</v>
+        <v>0.8603687466652553</v>
       </c>
     </row>
     <row r="38">
@@ -1850,31 +1850,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.3343651092863091</v>
+        <v>-0.3639921292214096</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.2328768111293577</v>
+        <v>-0.2420373352564637</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>0.4309516060176808</v>
+        <v>0.3955496468821533</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.09520371526350446</v>
+        <v>-0.07805790309789896</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>0.1584351773883317</v>
+        <v>0.1649123606116285</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.6161831179174863</v>
+        <v>0.614299045994765</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>-0.1111691192513606</v>
+        <v>-0.09678745714702444</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>0.1034837405678317</v>
+        <v>0.1053639252038395</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>0.6541762804929873</v>
+        <v>0.6574963255201713</v>
       </c>
     </row>
     <row r="39">
@@ -1885,31 +1885,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>0.1476106347295152</v>
+        <v>0.1630224008182051</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>0.3332993964526613</v>
+        <v>0.3176977002536496</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>1.432993790794366</v>
+        <v>1.373740149951891</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>0.2659371966279854</v>
+        <v>0.259863092873743</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.5858038340475371</v>
+        <v>0.5884057275108514</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>1.142154346484027</v>
+        <v>1.12490673020536</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.1899078579827082</v>
+        <v>0.1732768367685679</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>0.4575139926460456</v>
+        <v>0.4721341183980757</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>1.114489016584878</v>
+        <v>1.133830929396425</v>
       </c>
     </row>
     <row r="40">
@@ -1948,7 +1948,7 @@
         <v>7.139594308844099</v>
       </c>
       <c r="K40" s="5" t="n">
-        <v>19.09667613063228</v>
+        <v>19.09667613063229</v>
       </c>
     </row>
     <row r="41">
@@ -1959,31 +1959,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-1.637363635720503</v>
+        <v>-1.602818425570924</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>3.277808472749078</v>
+        <v>3.373188119629432</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>16.14287907125503</v>
+        <v>15.81627734174157</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-0.3099140502645276</v>
+        <v>-0.3858202199468682</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>5.577433003762765</v>
+        <v>5.738212186009436</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>17.47030831788516</v>
+        <v>17.34538153822762</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>-0.2121373023028148</v>
+        <v>-0.3263398035385789</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>5.345633118869228</v>
+        <v>5.395314175247224</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>17.31767983598839</v>
+        <v>17.56592325999009</v>
       </c>
     </row>
     <row r="42">
@@ -1994,31 +1994,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>3.473784686751917</v>
+        <v>3.492574164940093</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>8.632161903157851</v>
+        <v>8.940951445998296</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>21.27149781764847</v>
+        <v>21.09747986316589</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>4.737660782412832</v>
+        <v>4.375310934212753</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>10.7557803613334</v>
+        <v>10.71166118720858</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>21.77663534367341</v>
+        <v>21.97120327522317</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>3.346479755905595</v>
+        <v>3.422844017612648</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>9.080640265947777</v>
+        <v>9.038784404090473</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>20.81680293765009</v>
+        <v>21.08597493831306</v>
       </c>
     </row>
     <row r="43">
@@ -2053,7 +2053,7 @@
         <v>0.2469179035571668</v>
       </c>
       <c r="K43" s="6" t="n">
-        <v>0.6604452621691496</v>
+        <v>0.6604452621691499</v>
       </c>
     </row>
     <row r="44">
@@ -2064,31 +2064,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.0548418219149787</v>
+        <v>-0.05248210604535777</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>0.1073041327301309</v>
+        <v>0.1113816066381586</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>0.5325177067507727</v>
+        <v>0.5256452526296238</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.01056130717475911</v>
+        <v>-0.0121260212829126</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>0.1829755406366699</v>
+        <v>0.1836015738202499</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.5669733381466946</v>
+        <v>0.5700540980496878</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>-0.007207302908355541</v>
+        <v>-0.01023410722804298</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>0.1781436901984184</v>
+        <v>0.1785086996697509</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>0.5828097074713845</v>
+        <v>0.5856657385960631</v>
       </c>
     </row>
     <row r="45">
@@ -2099,31 +2099,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.1268095008332414</v>
+        <v>0.1260127791193296</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.3155483777640823</v>
+        <v>0.3259406006985621</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>0.773227190883947</v>
+        <v>0.7774940226712658</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.167497199040372</v>
+        <v>0.1586401873494581</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.391156997285622</v>
+        <v>0.3808955500527178</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.7869422726046214</v>
+        <v>0.795751286658836</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.1196431289803706</v>
+        <v>0.1225283437711981</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.3250902459491138</v>
+        <v>0.3223647760982823</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>0.7438930825514877</v>
+        <v>0.7568044646821777</v>
       </c>
     </row>
     <row r="46">
